--- a/trunk/成品/R1/城乡居民健康档案基本数据集/卫生信息数据元-beta0.92.xlsx
+++ b/trunk/成品/R1/城乡居民健康档案基本数据集/卫生信息数据元-beta0.92.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="12855" windowHeight="4620" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="12855" windowHeight="4620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表名" sheetId="1" r:id="rId1"/>
@@ -49447,8 +49447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -49597,7 +49597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -50905,7 +50905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -52759,7 +52759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
@@ -55146,7 +55146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -58672,7 +58672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I67" sqref="I63:I67"/>
     </sheetView>
   </sheetViews>
@@ -63402,8 +63402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -65385,8 +65385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -66599,8 +66599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I68" sqref="F68:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -79341,7 +79341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
